--- a/Code/Results/Cases/Case_1_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_252/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08178404276375062</v>
+        <v>0.02194918437700721</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.00405831890238062</v>
+        <v>0.01772501339230459</v>
       </c>
       <c r="E2">
-        <v>0.08752194369088784</v>
+        <v>0.1048837806690628</v>
       </c>
       <c r="F2">
-        <v>4.028131432681931</v>
+        <v>4.3749189305492</v>
       </c>
       <c r="G2">
-        <v>0.0008240057963224833</v>
+        <v>0.002604072062039644</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9354314710021612</v>
+        <v>1.059771133992264</v>
       </c>
       <c r="J2">
-        <v>0.2479422050421221</v>
+        <v>0.2441256079106608</v>
       </c>
       <c r="K2">
-        <v>3.840196772593629</v>
+        <v>2.496919799730904</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07390131716601189</v>
+        <v>0.01911112781201751</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.003580084732559996</v>
+        <v>0.01795720512971677</v>
       </c>
       <c r="E3">
-        <v>0.07750608393531166</v>
+        <v>0.1033732219077628</v>
       </c>
       <c r="F3">
-        <v>3.684939042292342</v>
+        <v>4.306034375401339</v>
       </c>
       <c r="G3">
-        <v>0.0008346196031087998</v>
+        <v>0.002610401798504939</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8966921167203807</v>
+        <v>1.049973308013264</v>
       </c>
       <c r="J3">
-        <v>0.2210764286198525</v>
+        <v>0.2390017085728005</v>
       </c>
       <c r="K3">
-        <v>3.324760631409902</v>
+        <v>2.388760583980797</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06896799744460225</v>
+        <v>0.01736058810011087</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.003281408345582548</v>
+        <v>0.01811559345419056</v>
       </c>
       <c r="E4">
-        <v>0.07153517148342203</v>
+        <v>0.1025128017859345</v>
       </c>
       <c r="F4">
-        <v>3.482211829632092</v>
+        <v>4.265771460229644</v>
       </c>
       <c r="G4">
-        <v>0.0008412843261758308</v>
+        <v>0.002614488861760647</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8740781500702894</v>
+        <v>1.044213551431518</v>
       </c>
       <c r="J4">
-        <v>0.2051129704425705</v>
+        <v>0.2359985207071986</v>
       </c>
       <c r="K4">
-        <v>3.016052864996823</v>
+        <v>2.324195393637012</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06693559297136886</v>
+        <v>0.01664537101058983</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.003158518193277615</v>
+        <v>0.01818413950483055</v>
       </c>
       <c r="E5">
-        <v>0.06914185666183315</v>
+        <v>0.1021789977891245</v>
       </c>
       <c r="F5">
-        <v>3.401393731762056</v>
+        <v>4.249871854495325</v>
       </c>
       <c r="G5">
-        <v>0.0008440401438102462</v>
+        <v>0.002616204997965169</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8651305768427378</v>
+        <v>1.041930248933191</v>
       </c>
       <c r="J5">
-        <v>0.1987260865079961</v>
+        <v>0.2348104233296411</v>
       </c>
       <c r="K5">
-        <v>2.891942983074671</v>
+        <v>2.298345370438199</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06659682232785258</v>
+        <v>0.01652650179131854</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003138043879514996</v>
+        <v>0.01819576388827926</v>
       </c>
       <c r="E6">
-        <v>0.06874671778326658</v>
+        <v>0.1021245848687826</v>
       </c>
       <c r="F6">
-        <v>3.388076454449191</v>
+        <v>4.247262317014304</v>
       </c>
       <c r="G6">
-        <v>0.0008445002292570353</v>
+        <v>0.00261649302437408</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8636602708333854</v>
+        <v>1.041554947851182</v>
       </c>
       <c r="J6">
-        <v>0.1976722739519445</v>
+        <v>0.2346152923929168</v>
       </c>
       <c r="K6">
-        <v>2.871429571554415</v>
+        <v>2.294080736034203</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06894067515305835</v>
+        <v>0.0173509497636104</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.003279755654496341</v>
+        <v>0.01811650165861423</v>
       </c>
       <c r="E7">
-        <v>0.07150273929681106</v>
+        <v>0.1025082319202646</v>
       </c>
       <c r="F7">
-        <v>3.481114890456524</v>
+        <v>4.265554980503111</v>
       </c>
       <c r="G7">
-        <v>0.0008413213272401818</v>
+        <v>0.002614511801083726</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8739564295303452</v>
+        <v>1.044182500254585</v>
       </c>
       <c r="J7">
-        <v>0.2050263748250245</v>
+        <v>0.2359823532302272</v>
       </c>
       <c r="K7">
-        <v>3.014372557415811</v>
+        <v>2.323844909424167</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0790863330894922</v>
+        <v>0.02097236013408121</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.003894524159534285</v>
+        <v>0.01780180302054113</v>
       </c>
       <c r="E8">
-        <v>0.08402811590778825</v>
+        <v>0.1043489939713815</v>
       </c>
       <c r="F8">
-        <v>3.908002923714434</v>
+        <v>4.350743714262762</v>
       </c>
       <c r="G8">
-        <v>0.000827636483724815</v>
+        <v>0.002606213037994046</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9218138555069757</v>
+        <v>1.056339335963472</v>
       </c>
       <c r="J8">
-        <v>0.2385585941051431</v>
+        <v>0.2423290980987076</v>
       </c>
       <c r="K8">
-        <v>3.660693937451526</v>
+        <v>2.45924162941094</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09817164543752455</v>
+        <v>0.02800477841608995</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005055986852291028</v>
+        <v>0.017309225730191</v>
       </c>
       <c r="E9">
-        <v>0.1102708922310072</v>
+        <v>0.1084931448599065</v>
       </c>
       <c r="F9">
-        <v>4.819568795650497</v>
+        <v>4.534084476796409</v>
       </c>
       <c r="G9">
-        <v>0.0008018346652332307</v>
+        <v>0.00259152212817315</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.026323898630793</v>
+        <v>1.08223828751067</v>
       </c>
       <c r="J9">
-        <v>0.3093314272990852</v>
+        <v>0.2559194273350585</v>
       </c>
       <c r="K9">
-        <v>5.003334837247678</v>
+        <v>2.739554392142622</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1115903028177101</v>
+        <v>0.03312178879051686</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.005876467591891199</v>
+        <v>0.01702195101557535</v>
       </c>
       <c r="E10">
-        <v>0.1309976541157774</v>
+        <v>0.1118673826937737</v>
       </c>
       <c r="F10">
-        <v>5.552399191335752</v>
+        <v>4.67895336033024</v>
       </c>
       <c r="G10">
-        <v>0.0007832862451773163</v>
+        <v>0.002581681690153221</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.11177008391455</v>
+        <v>1.102561316705767</v>
       </c>
       <c r="J10">
-        <v>0.3656662132996189</v>
+        <v>0.2666179186102084</v>
       </c>
       <c r="K10">
-        <v>6.057546562243715</v>
+        <v>2.954774509905462</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1175347137890554</v>
+        <v>0.03543729651386229</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.006241132360809587</v>
+        <v>0.01690719625960213</v>
       </c>
       <c r="E11">
-        <v>0.1408546478349386</v>
+        <v>0.1134748382433983</v>
       </c>
       <c r="F11">
-        <v>5.904263000730424</v>
+        <v>4.747119709982115</v>
       </c>
       <c r="G11">
-        <v>0.0007748771559453172</v>
+        <v>0.00257740937253023</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.153096408791541</v>
+        <v>1.112096686044438</v>
       </c>
       <c r="J11">
-        <v>0.3925822825043497</v>
+        <v>0.2716435259368524</v>
       </c>
       <c r="K11">
-        <v>6.557801996476655</v>
+        <v>3.054754942645332</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1197597727455673</v>
+        <v>0.03631221928429795</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.006377846416587118</v>
+        <v>0.01686601024783485</v>
       </c>
       <c r="E12">
-        <v>0.1446602645612742</v>
+        <v>0.1140940288197179</v>
       </c>
       <c r="F12">
-        <v>6.040644897109331</v>
+        <v>4.773262289838158</v>
       </c>
       <c r="G12">
-        <v>0.0007716910196794213</v>
+        <v>0.002575820714785919</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.16915579068268</v>
+        <v>1.115749891554003</v>
       </c>
       <c r="J12">
-        <v>0.4029949240053838</v>
+        <v>0.2735697032102991</v>
       </c>
       <c r="K12">
-        <v>6.75081213791816</v>
+        <v>3.092917697288385</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1192817739524514</v>
+        <v>0.0361238763067746</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.006348466318373269</v>
+        <v>0.01687477980873275</v>
       </c>
       <c r="E13">
-        <v>0.1438372080073798</v>
+        <v>0.1139602079287059</v>
       </c>
       <c r="F13">
-        <v>6.011124498633507</v>
+        <v>4.767617303482155</v>
       </c>
       <c r="G13">
-        <v>0.0007723773961869733</v>
+        <v>0.00257616156584346</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.165677877435712</v>
+        <v>1.114961214132002</v>
       </c>
       <c r="J13">
-        <v>0.4007419673203572</v>
+        <v>0.2731538355156573</v>
       </c>
       <c r="K13">
-        <v>6.709074297514462</v>
+        <v>3.084685156457738</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1177183098735171</v>
+        <v>0.03550931605992957</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.006252408388547792</v>
+        <v>0.01690376250627956</v>
       </c>
       <c r="E14">
-        <v>0.1411662031199512</v>
+        <v>0.1135255690148753</v>
       </c>
       <c r="F14">
-        <v>5.915417277616854</v>
+        <v>4.749263850889264</v>
       </c>
       <c r="G14">
-        <v>0.000774615104149487</v>
+        <v>0.002577278088914987</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.154409048831013</v>
+        <v>1.112396384775622</v>
       </c>
       <c r="J14">
-        <v>0.3934343048511124</v>
+        <v>0.2718015295015022</v>
       </c>
       <c r="K14">
-        <v>6.573605612704739</v>
+        <v>3.057888533791299</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1167571652238379</v>
+        <v>0.03513262705797615</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.006193386274345514</v>
+        <v>0.01692181012633398</v>
       </c>
       <c r="E15">
-        <v>0.1395400122756705</v>
+        <v>0.1132607069296085</v>
       </c>
       <c r="F15">
-        <v>5.857218214269409</v>
+        <v>4.738064850636647</v>
       </c>
       <c r="G15">
-        <v>0.0007759853378433344</v>
+        <v>0.002577965785780249</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.147561800605615</v>
+        <v>1.110830888781202</v>
       </c>
       <c r="J15">
-        <v>0.3889879490862711</v>
+        <v>0.2709762174480517</v>
       </c>
       <c r="K15">
-        <v>6.491112187014949</v>
+        <v>3.041514317539395</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1111983620537771</v>
+        <v>0.03297020575342202</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.005852451492547317</v>
+        <v>0.01702976919112942</v>
       </c>
       <c r="E16">
-        <v>0.1303630259499258</v>
+        <v>0.1117637953534611</v>
       </c>
       <c r="F16">
-        <v>5.529815379563985</v>
+        <v>4.674544424636679</v>
       </c>
       <c r="G16">
-        <v>0.0007838358921735517</v>
+        <v>0.002581964989091038</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.109123391948685</v>
+        <v>1.101944052837887</v>
       </c>
       <c r="J16">
-        <v>0.3639359616655895</v>
+        <v>0.2662927004483748</v>
       </c>
       <c r="K16">
-        <v>6.025318907614974</v>
+        <v>2.948282648950226</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1077453137121154</v>
+        <v>0.03164038765765298</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.005641006246625224</v>
+        <v>0.01710006284540988</v>
       </c>
       <c r="E17">
-        <v>0.124850464013619</v>
+        <v>0.1108640968520369</v>
       </c>
       <c r="F17">
-        <v>5.334017839916555</v>
+        <v>4.636159439524477</v>
       </c>
       <c r="G17">
-        <v>0.0007886553854584815</v>
+        <v>0.002584470529282326</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.086209485746075</v>
+        <v>1.096567065259542</v>
       </c>
       <c r="J17">
-        <v>0.3489204701114232</v>
+        <v>0.2634603672359503</v>
       </c>
       <c r="K17">
-        <v>5.745263724359802</v>
+        <v>2.89162238797627</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1057443742899054</v>
+        <v>0.03087436764484863</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.005518590857287009</v>
+        <v>0.01714199436302444</v>
       </c>
       <c r="E18">
-        <v>0.1217193119995095</v>
+        <v>0.1103534343722892</v>
       </c>
       <c r="F18">
-        <v>5.223108205584083</v>
+        <v>4.614294351418096</v>
       </c>
       <c r="G18">
-        <v>0.0007914305367069385</v>
+        <v>0.002585930875977208</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.073257347679991</v>
+        <v>1.093501653364022</v>
       </c>
       <c r="J18">
-        <v>0.3404028991319876</v>
+        <v>0.2618462166282853</v>
       </c>
       <c r="K18">
-        <v>5.58608940842629</v>
+        <v>2.85922804487285</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1050644253867716</v>
+        <v>0.03061481452886028</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.005477010177470376</v>
+        <v>0.01715645001352861</v>
       </c>
       <c r="E19">
-        <v>0.1206656296802073</v>
+        <v>0.110181702524752</v>
       </c>
       <c r="F19">
-        <v>5.185836127717636</v>
+        <v>4.606927666431773</v>
       </c>
       <c r="G19">
-        <v>0.0007923708535431118</v>
+        <v>0.002586428631469864</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.06890943353379</v>
+        <v>1.09246842565922</v>
       </c>
       <c r="J19">
-        <v>0.3375384593115456</v>
+        <v>0.2613022500511164</v>
       </c>
       <c r="K19">
-        <v>5.532506459270905</v>
+        <v>2.848293276859295</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1081144522713444</v>
+        <v>0.03178206852555832</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.005663598488455435</v>
+        <v>0.01709242482986184</v>
       </c>
       <c r="E20">
-        <v>0.1254331181286581</v>
+        <v>0.1109591650127975</v>
       </c>
       <c r="F20">
-        <v>5.354680841670529</v>
+        <v>4.640223520974388</v>
       </c>
       <c r="G20">
-        <v>0.0007881420605652743</v>
+        <v>0.002584201821833842</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.088624798929892</v>
+        <v>1.097136625963678</v>
       </c>
       <c r="J20">
-        <v>0.3505063516495142</v>
+        <v>0.2637603266707913</v>
       </c>
       <c r="K20">
-        <v>5.774874796339986</v>
+        <v>2.897633745646772</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.118178267976262</v>
+        <v>0.03568988031263132</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.006280661531354426</v>
+        <v>0.01689518816962732</v>
       </c>
       <c r="E21">
-        <v>0.1419486605035445</v>
+        <v>0.1136529480553996</v>
       </c>
       <c r="F21">
-        <v>5.943439394931346</v>
+        <v>4.754645732741295</v>
       </c>
       <c r="G21">
-        <v>0.0007739579360228621</v>
+        <v>0.002576949348655672</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.157707351513267</v>
+        <v>1.113148582510249</v>
       </c>
       <c r="J21">
-        <v>0.3955744617312575</v>
+        <v>0.2721981058971323</v>
       </c>
       <c r="K21">
-        <v>6.613293741536495</v>
+        <v>3.065751114970055</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1246024686130625</v>
+        <v>0.03823266134382663</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.006675842238090368</v>
+        <v>0.01677949916610544</v>
       </c>
       <c r="E22">
-        <v>0.1531747444944713</v>
+        <v>0.1154746163794158</v>
       </c>
       <c r="F22">
-        <v>6.346807682857786</v>
+        <v>4.831349429813741</v>
       </c>
       <c r="G22">
-        <v>0.0007646737962570094</v>
+        <v>0.002572379416967863</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.205279961451552</v>
+        <v>1.123860565903996</v>
       </c>
       <c r="J22">
-        <v>0.4263328105193409</v>
+        <v>0.2778473828094405</v>
       </c>
       <c r="K22">
-        <v>7.182441954633191</v>
+        <v>3.177389631855817</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1211888804904149</v>
+        <v>0.03687660495896239</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.006465721330791041</v>
+        <v>0.01684004219404223</v>
       </c>
       <c r="E23">
-        <v>0.1471393207661578</v>
+        <v>0.1144967453470613</v>
       </c>
       <c r="F23">
-        <v>6.129641460864093</v>
+        <v>4.790234074681422</v>
       </c>
       <c r="G23">
-        <v>0.0007696324291734089</v>
+        <v>0.00257480298177479</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.17964658365041</v>
+        <v>1.118120549990081</v>
       </c>
       <c r="J23">
-        <v>0.4097840795549388</v>
+        <v>0.2748198475640748</v>
       </c>
       <c r="K23">
-        <v>6.87651077091158</v>
+        <v>3.117643340803113</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1079476135250204</v>
+        <v>0.03171801923413398</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.00565338718174857</v>
+        <v>0.01709587324375406</v>
       </c>
       <c r="E24">
-        <v>0.1251695823843129</v>
+        <v>0.1109161641871985</v>
       </c>
       <c r="F24">
-        <v>5.345333972548303</v>
+        <v>4.638385517889162</v>
       </c>
       <c r="G24">
-        <v>0.0007883741207525967</v>
+        <v>0.002584323242247705</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.087532150487981</v>
+        <v>1.096879046974948</v>
       </c>
       <c r="J24">
-        <v>0.3497890188357076</v>
+        <v>0.2636246708136554</v>
       </c>
       <c r="K24">
-        <v>5.761481964681479</v>
+        <v>2.894915449241125</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.09310573039707037</v>
+        <v>0.02611051085585814</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.004747090523524733</v>
+        <v>0.0174292836605634</v>
       </c>
       <c r="E25">
-        <v>0.1029516749256736</v>
+        <v>0.1073144503124581</v>
       </c>
       <c r="F25">
-        <v>4.563317297708778</v>
+        <v>4.482717818530261</v>
       </c>
       <c r="G25">
-        <v>0.0008087251507064938</v>
+        <v>0.002595328189133011</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9967033643582397</v>
+        <v>1.075007376761114</v>
       </c>
       <c r="J25">
-        <v>0.2895273131946681</v>
+        <v>0.2521187301460088</v>
       </c>
       <c r="K25">
-        <v>4.629991541491336</v>
+        <v>2.662112225442741</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_252/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_252/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02194918437700721</v>
+        <v>0.08178404276371509</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01772501339230459</v>
+        <v>0.004058318902535163</v>
       </c>
       <c r="E2">
-        <v>0.1048837806690628</v>
+        <v>0.08752194369087007</v>
       </c>
       <c r="F2">
-        <v>4.3749189305492</v>
+        <v>4.02813143268196</v>
       </c>
       <c r="G2">
-        <v>0.002604072062039644</v>
+        <v>0.0008240057963154932</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.059771133992264</v>
+        <v>0.9354314710021328</v>
       </c>
       <c r="J2">
-        <v>0.2441256079106608</v>
+        <v>0.2479422050422784</v>
       </c>
       <c r="K2">
-        <v>2.496919799730904</v>
+        <v>3.840196772593458</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01911112781201751</v>
+        <v>0.07390131716612558</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01795720512971677</v>
+        <v>0.003580084732428546</v>
       </c>
       <c r="E3">
-        <v>0.1033732219077628</v>
+        <v>0.07750608393536496</v>
       </c>
       <c r="F3">
-        <v>4.306034375401339</v>
+        <v>3.68493904229237</v>
       </c>
       <c r="G3">
-        <v>0.002610401798504939</v>
+        <v>0.0008346196030406614</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.049973308013264</v>
+        <v>0.8966921167203736</v>
       </c>
       <c r="J3">
-        <v>0.2390017085728005</v>
+        <v>0.2210764286197673</v>
       </c>
       <c r="K3">
-        <v>2.388760583980797</v>
+        <v>3.324760631409958</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01736058810011087</v>
+        <v>0.06896799744463067</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01811559345419056</v>
+        <v>0.003281408345491954</v>
       </c>
       <c r="E4">
-        <v>0.1025128017859345</v>
+        <v>0.07153517148342914</v>
       </c>
       <c r="F4">
-        <v>4.265771460229644</v>
+        <v>3.482211829632121</v>
       </c>
       <c r="G4">
-        <v>0.002614488861760647</v>
+        <v>0.0008412843262431968</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.044213551431518</v>
+        <v>0.8740781500702681</v>
       </c>
       <c r="J4">
-        <v>0.2359985207071986</v>
+        <v>0.2051129704424923</v>
       </c>
       <c r="K4">
-        <v>2.324195393637012</v>
+        <v>3.01605286499688</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01664537101058983</v>
+        <v>0.06693559297130491</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01818413950483055</v>
+        <v>0.003158518193272286</v>
       </c>
       <c r="E5">
-        <v>0.1021789977891245</v>
+        <v>0.06914185666182959</v>
       </c>
       <c r="F5">
-        <v>4.249871854495325</v>
+        <v>3.401393731762028</v>
       </c>
       <c r="G5">
-        <v>0.002616204997965169</v>
+        <v>0.0008440401439280417</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.041930248933191</v>
+        <v>0.8651305768427449</v>
       </c>
       <c r="J5">
-        <v>0.2348104233296411</v>
+        <v>0.1987260865080103</v>
       </c>
       <c r="K5">
-        <v>2.298345370438199</v>
+        <v>2.891942983074728</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01652650179131854</v>
+        <v>0.06659682232773889</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01819576388827926</v>
+        <v>0.003138043879626906</v>
       </c>
       <c r="E6">
-        <v>0.1021245848687826</v>
+        <v>0.06874671778326658</v>
       </c>
       <c r="F6">
-        <v>4.247262317014304</v>
+        <v>3.388076454449049</v>
       </c>
       <c r="G6">
-        <v>0.00261649302437408</v>
+        <v>0.0008445002293180447</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.041554947851182</v>
+        <v>0.8636602708333712</v>
       </c>
       <c r="J6">
-        <v>0.2346152923929168</v>
+        <v>0.1976722739520511</v>
       </c>
       <c r="K6">
-        <v>2.294080736034203</v>
+        <v>2.871429571554359</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0173509497636104</v>
+        <v>0.06894067515324309</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01811650165861423</v>
+        <v>0.003279755654503447</v>
       </c>
       <c r="E7">
-        <v>0.1025082319202646</v>
+        <v>0.07150273929677553</v>
       </c>
       <c r="F7">
-        <v>4.265554980503111</v>
+        <v>3.481114890456496</v>
       </c>
       <c r="G7">
-        <v>0.002614511801083726</v>
+        <v>0.0008413213273030535</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.044182500254585</v>
+        <v>0.8739564295303666</v>
       </c>
       <c r="J7">
-        <v>0.2359823532302272</v>
+        <v>0.2050263748250245</v>
       </c>
       <c r="K7">
-        <v>2.323844909424167</v>
+        <v>3.014372557415811</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02097236013408121</v>
+        <v>0.07908633308952773</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01780180302054113</v>
+        <v>0.00389452415937086</v>
       </c>
       <c r="E8">
-        <v>0.1043489939713815</v>
+        <v>0.08402811590775627</v>
       </c>
       <c r="F8">
-        <v>4.350743714262762</v>
+        <v>3.908002923714434</v>
       </c>
       <c r="G8">
-        <v>0.002606213037994046</v>
+        <v>0.0008276364838466499</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.056339335963472</v>
+        <v>0.9218138555069686</v>
       </c>
       <c r="J8">
-        <v>0.2423290980987076</v>
+        <v>0.2385585941051431</v>
       </c>
       <c r="K8">
-        <v>2.45924162941094</v>
+        <v>3.660693937451526</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02800477841608995</v>
+        <v>0.09817164543753165</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.017309225730191</v>
+        <v>0.005055986852074312</v>
       </c>
       <c r="E9">
-        <v>0.1084931448599065</v>
+        <v>0.1102708922310036</v>
       </c>
       <c r="F9">
-        <v>4.534084476796409</v>
+        <v>4.819568795650468</v>
       </c>
       <c r="G9">
-        <v>0.00259152212817315</v>
+        <v>0.0008018346651197562</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.08223828751067</v>
+        <v>1.026323898630764</v>
       </c>
       <c r="J9">
-        <v>0.2559194273350585</v>
+        <v>0.3093314272992274</v>
       </c>
       <c r="K9">
-        <v>2.739554392142622</v>
+        <v>5.003334837247678</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03312178879051686</v>
+        <v>0.1115903028179375</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01702195101557535</v>
+        <v>0.005876467592088375</v>
       </c>
       <c r="E10">
-        <v>0.1118673826937737</v>
+        <v>0.1309976541157205</v>
       </c>
       <c r="F10">
-        <v>4.67895336033024</v>
+        <v>5.552399191335809</v>
       </c>
       <c r="G10">
-        <v>0.002581681690153221</v>
+        <v>0.0007832862451713396</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.102561316705767</v>
+        <v>1.111770083914578</v>
       </c>
       <c r="J10">
-        <v>0.2666179186102084</v>
+        <v>0.3656662132994342</v>
       </c>
       <c r="K10">
-        <v>2.954774509905462</v>
+        <v>6.057546562243886</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.03543729651386229</v>
+        <v>0.1175347137889986</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01690719625960213</v>
+        <v>0.006241132360864654</v>
       </c>
       <c r="E11">
-        <v>0.1134748382433983</v>
+        <v>0.1408546478348889</v>
       </c>
       <c r="F11">
-        <v>4.747119709982115</v>
+        <v>5.904263000730396</v>
       </c>
       <c r="G11">
-        <v>0.00257740937253023</v>
+        <v>0.0007748771560021067</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.112096686044438</v>
+        <v>1.153096408791512</v>
       </c>
       <c r="J11">
-        <v>0.2716435259368524</v>
+        <v>0.392582282504037</v>
       </c>
       <c r="K11">
-        <v>3.054754942645332</v>
+        <v>6.557801996476655</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03631221928429795</v>
+        <v>0.1197597727455673</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01686601024783485</v>
+        <v>0.006377846416594224</v>
       </c>
       <c r="E12">
-        <v>0.1140940288197179</v>
+        <v>0.1446602645612778</v>
       </c>
       <c r="F12">
-        <v>4.773262289838158</v>
+        <v>6.040644897109331</v>
       </c>
       <c r="G12">
-        <v>0.002575820714785919</v>
+        <v>0.0007716910199090511</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.115749891554003</v>
+        <v>1.16915579068268</v>
       </c>
       <c r="J12">
-        <v>0.2735697032102991</v>
+        <v>0.4029949240054123</v>
       </c>
       <c r="K12">
-        <v>3.092917697288385</v>
+        <v>6.75081213791816</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.0361238763067746</v>
+        <v>0.1192817739523946</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01687477980873275</v>
+        <v>0.006348466318147672</v>
       </c>
       <c r="E13">
-        <v>0.1139602079287059</v>
+        <v>0.1438372080073798</v>
       </c>
       <c r="F13">
-        <v>4.767617303482155</v>
+        <v>6.011124498633535</v>
       </c>
       <c r="G13">
-        <v>0.00257616156584346</v>
+        <v>0.0007723773962430342</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.114961214132002</v>
+        <v>1.165677877435712</v>
       </c>
       <c r="J13">
-        <v>0.2731538355156573</v>
+        <v>0.4007419673204708</v>
       </c>
       <c r="K13">
-        <v>3.084685156457738</v>
+        <v>6.709074297514462</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.03550931605992957</v>
+        <v>0.1177183098735384</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01690376250627956</v>
+        <v>0.006252408388593977</v>
       </c>
       <c r="E14">
-        <v>0.1135255690148753</v>
+        <v>0.1411662031199192</v>
       </c>
       <c r="F14">
-        <v>4.749263850889264</v>
+        <v>5.915417277616882</v>
       </c>
       <c r="G14">
-        <v>0.002577278088914987</v>
+        <v>0.0007746151041763229</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.112396384775622</v>
+        <v>1.154409048830985</v>
       </c>
       <c r="J14">
-        <v>0.2718015295015022</v>
+        <v>0.3934343048508993</v>
       </c>
       <c r="K14">
-        <v>3.057888533791299</v>
+        <v>6.57360561270491</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.03513262705797615</v>
+        <v>0.1167571652237456</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.01692181012633398</v>
+        <v>0.006193386274270907</v>
       </c>
       <c r="E15">
-        <v>0.1132607069296085</v>
+        <v>0.1395400122756669</v>
       </c>
       <c r="F15">
-        <v>4.738064850636647</v>
+        <v>5.857218214269466</v>
       </c>
       <c r="G15">
-        <v>0.002577965785780249</v>
+        <v>0.0007759853379812039</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.110830888781202</v>
+        <v>1.147561800605629</v>
       </c>
       <c r="J15">
-        <v>0.2709762174480517</v>
+        <v>0.3889879490863137</v>
       </c>
       <c r="K15">
-        <v>3.041514317539395</v>
+        <v>6.491112187014892</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.03297020575342202</v>
+        <v>0.1111983620538197</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01702976919112942</v>
+        <v>0.005852451492708965</v>
       </c>
       <c r="E16">
-        <v>0.1117637953534611</v>
+        <v>0.1303630259498796</v>
       </c>
       <c r="F16">
-        <v>4.674544424636679</v>
+        <v>5.529815379564042</v>
       </c>
       <c r="G16">
-        <v>0.002581964989091038</v>
+        <v>0.0007838358920321486</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.101944052837887</v>
+        <v>1.109123391948685</v>
       </c>
       <c r="J16">
-        <v>0.2662927004483748</v>
+        <v>0.3639359616658027</v>
       </c>
       <c r="K16">
-        <v>2.948282648950226</v>
+        <v>6.025318907614974</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.03164038765765298</v>
+        <v>0.1077453137121154</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01710006284540988</v>
+        <v>0.005641006246326796</v>
       </c>
       <c r="E17">
-        <v>0.1108640968520369</v>
+        <v>0.1248504640136261</v>
       </c>
       <c r="F17">
-        <v>4.636159439524477</v>
+        <v>5.334017839916555</v>
       </c>
       <c r="G17">
-        <v>0.002584470529282326</v>
+        <v>0.0007886553855445137</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.096567065259542</v>
+        <v>1.086209485746039</v>
       </c>
       <c r="J17">
-        <v>0.2634603672359503</v>
+        <v>0.3489204701115654</v>
       </c>
       <c r="K17">
-        <v>2.89162238797627</v>
+        <v>5.745263724360086</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.03087436764484863</v>
+        <v>0.1057443742899622</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01714199436302444</v>
+        <v>0.005518590857050754</v>
       </c>
       <c r="E18">
-        <v>0.1103534343722892</v>
+        <v>0.1217193119995059</v>
       </c>
       <c r="F18">
-        <v>4.614294351418096</v>
+        <v>5.223108205584083</v>
       </c>
       <c r="G18">
-        <v>0.002585930875977208</v>
+        <v>0.0007914305367049525</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.093501653364022</v>
+        <v>1.073257347679991</v>
       </c>
       <c r="J18">
-        <v>0.2618462166282853</v>
+        <v>0.3404028991319876</v>
       </c>
       <c r="K18">
-        <v>2.85922804487285</v>
+        <v>5.586089408426403</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.03061481452886028</v>
+        <v>0.1050644253866579</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01715645001352861</v>
+        <v>0.005477010177209252</v>
       </c>
       <c r="E19">
-        <v>0.110181702524752</v>
+        <v>0.1206656296800759</v>
       </c>
       <c r="F19">
-        <v>4.606927666431773</v>
+        <v>5.185836127717693</v>
       </c>
       <c r="G19">
-        <v>0.002586428631469864</v>
+        <v>0.000792370853673377</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.09246842565922</v>
+        <v>1.068909433533797</v>
       </c>
       <c r="J19">
-        <v>0.2613022500511164</v>
+        <v>0.3375384593115456</v>
       </c>
       <c r="K19">
-        <v>2.848293276859295</v>
+        <v>5.532506459270905</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.03178206852555832</v>
+        <v>0.1081144522713302</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01709242482986184</v>
+        <v>0.005663598488983013</v>
       </c>
       <c r="E20">
-        <v>0.1109591650127975</v>
+        <v>0.1254331181286759</v>
       </c>
       <c r="F20">
-        <v>4.640223520974388</v>
+        <v>5.354680841670501</v>
       </c>
       <c r="G20">
-        <v>0.002584201821833842</v>
+        <v>0.0007881420604226439</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.097136625963678</v>
+        <v>1.088624798929906</v>
       </c>
       <c r="J20">
-        <v>0.2637603266707913</v>
+        <v>0.3505063516494715</v>
       </c>
       <c r="K20">
-        <v>2.897633745646772</v>
+        <v>5.7748747963401</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.03568988031263132</v>
+        <v>0.1181782679763685</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01689518816962732</v>
+        <v>0.006280661531434362</v>
       </c>
       <c r="E21">
-        <v>0.1136529480553996</v>
+        <v>0.1419486605035054</v>
       </c>
       <c r="F21">
-        <v>4.754645732741295</v>
+        <v>5.943439394931318</v>
       </c>
       <c r="G21">
-        <v>0.002576949348655672</v>
+        <v>0.0007739579360832582</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.113148582510249</v>
+        <v>1.157707351513253</v>
       </c>
       <c r="J21">
-        <v>0.2721981058971323</v>
+        <v>0.3955744617314139</v>
       </c>
       <c r="K21">
-        <v>3.065751114970055</v>
+        <v>6.613293741536268</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.03823266134382663</v>
+        <v>0.1246024686130554</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01677949916610544</v>
+        <v>0.006675842238148988</v>
       </c>
       <c r="E22">
-        <v>0.1154746163794158</v>
+        <v>0.1531747444944145</v>
       </c>
       <c r="F22">
-        <v>4.831349429813741</v>
+        <v>6.346807682857758</v>
       </c>
       <c r="G22">
-        <v>0.002572379416967863</v>
+        <v>0.0007646737962339814</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.123860565903996</v>
+        <v>1.205279961451566</v>
       </c>
       <c r="J22">
-        <v>0.2778473828094405</v>
+        <v>0.4263328105193835</v>
       </c>
       <c r="K22">
-        <v>3.177389631855817</v>
+        <v>7.182441954633134</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.03687660495896239</v>
+        <v>0.121188880490358</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01684004219404223</v>
+        <v>0.006465721330839003</v>
       </c>
       <c r="E23">
-        <v>0.1144967453470613</v>
+        <v>0.1471393207661542</v>
       </c>
       <c r="F23">
-        <v>4.790234074681422</v>
+        <v>6.129641460864065</v>
       </c>
       <c r="G23">
-        <v>0.00257480298177479</v>
+        <v>0.000769632429086009</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.118120549990081</v>
+        <v>1.179646583650424</v>
       </c>
       <c r="J23">
-        <v>0.2748198475640748</v>
+        <v>0.4097840795550383</v>
       </c>
       <c r="K23">
-        <v>3.117643340803113</v>
+        <v>6.87651077091175</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.03171801923413398</v>
+        <v>0.1079476135249138</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01709587324375406</v>
+        <v>0.005653387181769887</v>
       </c>
       <c r="E24">
-        <v>0.1109161641871985</v>
+        <v>0.1251695823842951</v>
       </c>
       <c r="F24">
-        <v>4.638385517889162</v>
+        <v>5.34533397254836</v>
       </c>
       <c r="G24">
-        <v>0.002584323242247705</v>
+        <v>0.0007883741206991371</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.096879046974948</v>
+        <v>1.087532150487952</v>
       </c>
       <c r="J24">
-        <v>0.2636246708136554</v>
+        <v>0.3497890188356081</v>
       </c>
       <c r="K24">
-        <v>2.894915449241125</v>
+        <v>5.761481964681366</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.02611051085585814</v>
+        <v>0.09310573039713432</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0174292836605634</v>
+        <v>0.004747090523430586</v>
       </c>
       <c r="E25">
-        <v>0.1073144503124581</v>
+        <v>0.1029516749256238</v>
       </c>
       <c r="F25">
-        <v>4.482717818530261</v>
+        <v>4.563317297708778</v>
       </c>
       <c r="G25">
-        <v>0.002595328189133011</v>
+        <v>0.0008087251508377921</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.075007376761114</v>
+        <v>0.9967033643582326</v>
       </c>
       <c r="J25">
-        <v>0.2521187301460088</v>
+        <v>0.2895273131946112</v>
       </c>
       <c r="K25">
-        <v>2.662112225442741</v>
+        <v>4.629991541491393</v>
       </c>
       <c r="L25">
         <v>0</v>
